--- a/klasa3.xlsx
+++ b/klasa3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>broj markera na slici</t>
   </si>
@@ -27,19 +27,34 @@
     <t>broj slika</t>
   </si>
   <si>
-    <t xml:space="preserve">greška translacije </t>
-  </si>
-  <si>
     <t>euklidsko rastojanje u cm</t>
   </si>
   <si>
     <t>euklidsko rastojanje u *</t>
   </si>
   <si>
-    <t>greška rotacije</t>
-  </si>
-  <si>
     <t>Ukupan broj slika: 288</t>
+  </si>
+  <si>
+    <t>nasao markera: 0</t>
+  </si>
+  <si>
+    <t>nasao markera: 1</t>
+  </si>
+  <si>
+    <t>nasao markera: 2</t>
+  </si>
+  <si>
+    <t>nasao markera: 3</t>
+  </si>
+  <si>
+    <t>detekcija</t>
+  </si>
+  <si>
+    <t>broj detektovanih markera</t>
+  </si>
+  <si>
+    <t>greška</t>
   </si>
 </sst>
 </file>
@@ -75,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -98,11 +113,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,7 +174,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,32 +491,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,97 +531,231 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>113</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>72</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>140</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10">
+        <v>4</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>126</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4.6059000000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.8951699999999998</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>80</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2.7177699999999998</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.2487699999999999</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>140</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7.54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4.34</v>
-      </c>
+      <c r="D15" s="14">
+        <v>3.6223000000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.24031</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
